--- a/it/lang/lang.xlsx
+++ b/it/lang/lang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab\sandbox\it\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F07C64-5A6A-4476-9671-305CC3D69024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7447835B-4B75-4437-BC14-AE2EDFEDB770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>Java</t>
   </si>
@@ -104,9 +104,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>Embeded / Sys</t>
-  </si>
-  <si>
     <t>https://survey.stackoverflow.co/2024/technology</t>
   </si>
   <si>
@@ -197,24 +194,12 @@
     <t>https://hexdocs.pm/rustler/readme.html</t>
   </si>
   <si>
-    <t>? / Yes?</t>
-  </si>
-  <si>
     <t>Kotlin</t>
   </si>
   <si>
-    <t>Server side</t>
-  </si>
-  <si>
     <t>Server side only</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Not really</t>
-  </si>
-  <si>
     <t>Javascript:</t>
   </si>
   <si>
@@ -264,13 +249,19 @@
   </si>
   <si>
     <t>Hardware:</t>
+  </si>
+  <si>
+    <t>Embedded / Sys</t>
+  </si>
+  <si>
+    <t>Not much</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +284,16 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -350,26 +351,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -654,7 +656,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,47 +668,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>48</v>
+      <c r="F1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -716,119 +716,107 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>7</v>
+      <c r="G7" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -840,27 +828,34 @@
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" location="Elixir!A1" display="Elixir" xr:uid="{51680C6A-9C0B-49B1-82E1-1A4CEBA8A411}"/>
+    <hyperlink ref="F1" location="Embedded!A1" display="Embedded / Sys" xr:uid="{718B0387-28ED-4590-91EA-7E224CDC07B7}"/>
+    <hyperlink ref="G1" location="AI!A1" display="AI / Science" xr:uid="{A30AFA85-D98E-4987-B13A-61AC787DB3E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -883,16 +878,16 @@
       <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -900,37 +895,37 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
+      <c r="A7" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -963,95 +958,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
-        <v>73</v>
+      <c r="B10" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>62</v>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>68</v>
+      <c r="B16" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>69</v>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>74</v>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>76</v>
+      <c r="B21" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1091,42 +1086,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>47</v>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1143,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,77 +1154,77 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1263,8 +1258,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
+      <c r="A1" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
